--- a/config_1.12/activity_exchange_server.xlsx
+++ b/config_1.12/activity_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="206">
   <si>
     <t>id|</t>
   </si>
@@ -1060,6 +1060,50 @@
   </si>
   <si>
     <t>椰子汁6瓶</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>24000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2400,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2400,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1617,8 +1661,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2643,11 +2687,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E139" sqref="E139"/>
+      <selection pane="bottomRight" activeCell="E143" sqref="E143:E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5789,7 +5833,9 @@
       </c>
       <c r="F122" s="20"/>
       <c r="G122" s="20"/>
-      <c r="H122" s="19"/>
+      <c r="H122" s="20" t="s">
+        <v>203</v>
+      </c>
       <c r="I122" s="17"/>
       <c r="J122" s="17">
         <v>1</v>
@@ -5813,7 +5859,9 @@
       </c>
       <c r="F123" s="20"/>
       <c r="G123" s="20"/>
-      <c r="H123" s="19"/>
+      <c r="H123" s="20" t="s">
+        <v>204</v>
+      </c>
       <c r="I123" s="17"/>
       <c r="J123" s="17">
         <v>1</v>
@@ -5837,7 +5885,9 @@
       </c>
       <c r="F124" s="17"/>
       <c r="G124" s="20"/>
-      <c r="H124" s="19"/>
+      <c r="H124" s="20" t="s">
+        <v>205</v>
+      </c>
       <c r="I124" s="17"/>
       <c r="J124" s="17">
         <v>1</v>
@@ -5863,8 +5913,8 @@
       <c r="G125" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H125" s="19" t="s">
-        <v>96</v>
+      <c r="H125" s="20" t="s">
+        <v>195</v>
       </c>
       <c r="I125" s="17"/>
       <c r="J125" s="17"/>
@@ -5890,7 +5940,7 @@
         <v>175</v>
       </c>
       <c r="H126" s="18" t="s">
-        <v>130</v>
+        <v>199</v>
       </c>
       <c r="I126" s="17"/>
       <c r="J126" s="17">
@@ -5918,7 +5968,7 @@
         <v>175</v>
       </c>
       <c r="H127" s="18" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="I127" s="17"/>
       <c r="J127" s="17">
@@ -5946,7 +5996,7 @@
         <v>56</v>
       </c>
       <c r="H128" s="18" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="I128" s="17"/>
       <c r="J128" s="17">
@@ -5973,8 +6023,8 @@
       <c r="G129" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="H129" s="19" t="s">
-        <v>100</v>
+      <c r="H129" s="20" t="s">
+        <v>196</v>
       </c>
       <c r="I129" s="17"/>
       <c r="J129" s="17">
@@ -5999,7 +6049,9 @@
       </c>
       <c r="F130" s="24"/>
       <c r="G130" s="24"/>
-      <c r="H130" s="22"/>
+      <c r="H130" s="24" t="s">
+        <v>203</v>
+      </c>
       <c r="I130" s="21"/>
       <c r="J130" s="21">
         <v>1</v>
@@ -6023,7 +6075,9 @@
       </c>
       <c r="F131" s="24"/>
       <c r="G131" s="24"/>
-      <c r="H131" s="22"/>
+      <c r="H131" s="24" t="s">
+        <v>204</v>
+      </c>
       <c r="I131" s="21"/>
       <c r="J131" s="21">
         <v>1</v>
@@ -6047,7 +6101,9 @@
       </c>
       <c r="F132" s="24"/>
       <c r="G132" s="24"/>
-      <c r="H132" s="22"/>
+      <c r="H132" s="24" t="s">
+        <v>205</v>
+      </c>
       <c r="I132" s="21"/>
       <c r="J132" s="21">
         <v>1</v>
@@ -6073,7 +6129,7 @@
       <c r="G133" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="H133" s="22" t="s">
+      <c r="H133" s="24" t="s">
         <v>96</v>
       </c>
       <c r="I133" s="21"/>
@@ -6100,7 +6156,7 @@
         <v>62</v>
       </c>
       <c r="H134" s="25" t="s">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="I134" s="21"/>
       <c r="J134" s="21">
@@ -6128,7 +6184,7 @@
         <v>178</v>
       </c>
       <c r="H135" s="25" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
       <c r="I135" s="21"/>
       <c r="J135" s="21">
@@ -6156,7 +6212,7 @@
         <v>56</v>
       </c>
       <c r="H136" s="25" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
       <c r="I136" s="21"/>
       <c r="J136" s="21">
@@ -6183,7 +6239,7 @@
       <c r="G137" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="H137" s="22" t="s">
+      <c r="H137" s="24" t="s">
         <v>100</v>
       </c>
       <c r="I137" s="21"/>
